--- a/ExportedEstimate.xlsx
+++ b/ExportedEstimate.xlsx
@@ -53,7 +53,7 @@
     <t>France Central</t>
   </si>
   <si>
-    <t>Block Blob Storage, General Purpose V2, Flat Namespace, LRS Redundancy, Hot Access Tier, 1,000 GB Capacity - Pay as you go, 10 x 10,000 Write operations, 1 x 10,000 List and Create Container Operations, 10 x 10,000 Read operations, 1 x 10,000 Other operations. 1,000 GB Data Retrieval, 1,000 GB Data Write, SFTP disabled</t>
+    <t>Block Blob Storage, General Purpose V2, Flat Namespace, LRS Redundancy, Hot Access Tier, 10 GB Capacity - Pay as you go, 10 x 10,000 Write operations, 10 x 10,000 List and Create Container Operations, 10 x 10,000 Read operations, 10 x 10,000 Other operations. 10 GB Data Retrieval, 1,000 GB Data Write, SFTP disabled</t>
   </si>
   <si>
     <t>Compute</t>
@@ -71,7 +71,7 @@
     <t>Azure Database for MySQL</t>
   </si>
   <si>
-    <t>Flexible Server Deployment, Burstable Tier, 1 B1MS (1 vCores) x 730 Hours, 5 GB Storage with LRS redundancy, 0 million Paid IO, 0 GB Additional Backup storage with LRS</t>
+    <t>Flexible Server Deployment, Burstable Tier, 1 B1MS (1 vCores) x 730 Hours, 1 GB Storage with LRS redundancy, 0 million Paid IO, 0 GB Additional Backup storage with LRS</t>
   </si>
   <si>
     <t>Internet of Things</t>
@@ -80,7 +80,7 @@
     <t>Azure IoT Hub</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Tier, B1: Unlimited devices, 400,000 msgs/day, $12.50/mo, 10 IoT Hub Units; </t>
+    <t xml:space="preserve">Standard Tier, S1: Unlimited devices, 400,000 msgs/day, $31.25/mo, 10 IoT Hub Units; </t>
   </si>
   <si>
     <t>Support</t>
@@ -104,10 +104,10 @@
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>All prices shown are in United States – Dollar ($) USD. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
+    <t>All prices shown are in Euro Zone – Euro (€) EUR. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 5/23/2025 10:17:30 PM UTC.</t>
+    <t>This estimate was created at 5/24/2025 6:16:46 AM UTC.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$€]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -380,7 +380,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>19.9007</v>
+        <v>1.2883381667984886</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -422,7 +422,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="5">
-        <v>13.14</v>
+        <v>11.547587661481677</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -464,7 +464,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="5">
-        <v>14.535</v>
+        <v>12.3060022849108</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="5">
-        <v>125</v>
+        <v>274.62870199490288</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="15">
-        <v>172.5757</v>
+        <v>299.77063010809383</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
